--- a/Optical_Pumping/Datos/Vida_setenta_Hijueputa.xlsx
+++ b/Optical_Pumping/Datos/Vida_setenta_Hijueputa.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\OneDrive - Universidad de Los Andes\Laboratorio Avanzado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Optical_Pumping/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{9A6E3D51-1463-4AA0-B39C-B65673E24BC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3CE446EB-BD49-445B-B37C-07755D194146}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F66023-3143-7E4D-8CD3-FF3407B4DDF9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A6AD8521-7E67-4480-A5E5-84812F7C9A1B}"/>
+    <workbookView xWindow="4560" yWindow="1100" windowWidth="24240" windowHeight="12860" activeTab="1" xr2:uid="{A6AD8521-7E67-4480-A5E5-84812F7C9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibración" sheetId="1" r:id="rId1"/>
     <sheet name="Zeeman" sheetId="2" r:id="rId2"/>
     <sheet name="rabii" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -142,513 +136,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.0914260717410318E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.86807874015748032"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Zeeman!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frecuencia (kHz)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Zeeman!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75900000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Zeeman!$C$2:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DCC-492D-ABFD-33A513C999D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11606014873140857"/>
-                  <c:y val="0.25187007874015749"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Zeeman!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.84099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98099999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Zeeman!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7DCC-492D-ABFD-33A513C999D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="729466863"/>
-        <c:axId val="677251199"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="729466863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="677251199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="677251199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="729466863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -685,7 +173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -765,7 +253,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -883,7 +371,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1003,7 +491,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="808226927"/>
@@ -1065,7 +553,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="973056159"/>
@@ -1113,7 +601,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1164,46 +652,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1720,564 +1168,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFD9538-A294-4F46-843D-1766DB453DB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2319,7 +1210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2618,18 +1509,18 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2646,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>170</v>
       </c>
@@ -2662,7 +1553,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
@@ -2670,7 +1561,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C14" si="0">ABS(B3-A3)</f>
+        <f t="shared" ref="C3" si="0">ABS(B3-A3)</f>
         <v>90</v>
       </c>
       <c r="D3">
@@ -2678,195 +1569,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D20" si="1">(90-C4)/2</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
       <c r="F10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
       <c r="F12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <f t="shared" ref="C15:C20" si="2">ABS(B15-A15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
       <c r="E16">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
       <c r="E17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
       <c r="E20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
     </row>
   </sheetData>
@@ -2876,15 +1648,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5380C7-A0D3-45ED-AB47-1BE9A2679432}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2895,91 +1672,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>0.37</v>
+      </c>
+      <c r="B2">
+        <v>0.37</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0.66</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>0.68</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.877</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>0.70599999999999996</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.90500000000000003</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>0.72899999999999998</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.91400000000000003</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>0.73699999999999999</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.96599999999999997</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>0.75900000000000001</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0.98099999999999998</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N17">
-        <f>500.23/349.27</f>
-        <v>1.4322157643084148</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2987,13 +1758,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1585E2-6638-4E10-9CFF-856177980693}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" activeCellId="1" sqref="D4:D7 G4:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +1778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3016,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3032,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3054,7 +1825,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3076,7 +1847,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3098,7 +1869,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3120,7 +1891,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>

--- a/Optical_Pumping/Datos/Vida_setenta_Hijueputa.xlsx
+++ b/Optical_Pumping/Datos/Vida_setenta_Hijueputa.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Optical_Pumping/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamontana\Dropbox\Laboratorio_Avanzado\Optical_Pumping\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F66023-3143-7E4D-8CD3-FF3407B4DDF9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C77B9-2B22-4CE9-851E-393790172F75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1100" windowWidth="24240" windowHeight="12860" activeTab="1" xr2:uid="{A6AD8521-7E67-4480-A5E5-84812F7C9A1B}"/>
+    <workbookView xWindow="4560" yWindow="1095" windowWidth="24240" windowHeight="12855" activeTab="3" xr2:uid="{A6AD8521-7E67-4480-A5E5-84812F7C9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibración" sheetId="1" r:id="rId1"/>
     <sheet name="Zeeman" sheetId="2" r:id="rId2"/>
     <sheet name="rabii" sheetId="3" r:id="rId3"/>
+    <sheet name="Nuevo_rabi" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Delta</t>
   </si>
@@ -79,13 +86,27 @@
   <si>
     <t>para 0,838</t>
   </si>
+  <si>
+    <t>t(ms) 0,838</t>
+  </si>
+  <si>
+    <t>t(ms) 0,660</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,9 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,7 +158,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -173,7 +195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -253,7 +275,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -371,7 +393,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -491,7 +513,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="808226927"/>
@@ -553,7 +575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="973056159"/>
@@ -601,7 +623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1172,16 +1194,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>626745</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1210,7 +1232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1512,15 +1534,15 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>170</v>
       </c>
@@ -1553,7 +1575,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1569,76 +1591,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="F10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="F12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="E16">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="E17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="E20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
   </sheetData>
@@ -1650,18 +1672,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5380C7-A0D3-45ED-AB47-1BE9A2679432}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.37</v>
       </c>
@@ -1683,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.66</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.68</v>
       </c>
@@ -1705,7 +1727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.70599999999999996</v>
       </c>
@@ -1716,7 +1738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.72899999999999998</v>
       </c>
@@ -1727,7 +1749,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.73699999999999999</v>
       </c>
@@ -1738,7 +1760,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.75900000000000001</v>
       </c>
@@ -1759,12 +1781,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" activeCellId="1" sqref="D4:D7 G4:G7"/>
+      <selection activeCell="F4" sqref="F4:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1778,7 +1800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1787,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1803,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1825,7 +1847,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1847,7 +1869,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1869,7 +1891,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1891,7 +1913,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1903,4 +1925,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AE018F-0818-49FD-938C-1EACF1DC8156}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2.4</v>
+      </c>
+      <c r="C2">
+        <f>+A2*5</f>
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3">
+        <f>+A3*5</f>
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>+A4*5</f>
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C5">
+        <f>+A5*5</f>
+        <v>50</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>